--- a/机构名的识别.xlsx
+++ b/机构名的识别.xlsx
@@ -18,14 +18,78 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Disease named entity recognition by combining
+conditional random fields and bidirectional
+recurrent neural networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决问题的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验语料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以抄的部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>However, the publicly available recognition systems of disease named entities are rare mainly due to the diversity and complexity
+of disease named entities in naming conventions and the lack of appropriate training corpora.其实全称-简称的识别也缺少相应的语料库，因此我们的研究也是有价值的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构图、流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用skip-gram训练word 
+embedding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +113,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,8 +135,95 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1305498</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2020621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8391524" y="209550"/>
+          <a:ext cx="1267399" cy="1992046"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1838324</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5913889</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1788769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191749" y="276225"/>
+          <a:ext cx="4075565" cy="1693519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +268,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +303,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +485,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="38.875" customWidth="1"/>
+    <col min="8" max="8" width="118.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2016</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>